--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-V.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-V.RS0001.a205.xlsx
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-V.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-V.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,37 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +486,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +527,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1101,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1120,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'V': 75.0 ton, 2.78 COP liquid-cooled, positive displacement compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'V': 0.0-150.0 ton, 4.45 COP, 5.20 IPLV liquid-cooled, positive displacement compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1139,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>bcc86e2e-7cf6-4771-aeb3-f666b5ca64e7</t>
+          <t>b0b4a5a5-73c0-4740-9032-63fd6682d541</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1158,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1176,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1481,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>115326.3634432648</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1520,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1539,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1555,81 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1790,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1953,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2108,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2152,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2209,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2231,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2240,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26645.28565111743</v>
+        <v>16641.9527011482</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>67088.76660374082</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>93734.05225485825</v>
+        <v>83730.71930488902</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.4497017036504</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.2696031234464</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2268,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2277,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37549.49021822357</v>
+        <v>23452.43538936116</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>134177.5332074816</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>171727.0234257052</v>
+        <v>157629.9685968428</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.8605145184118</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.3860911337641</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2305,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2314,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52667.89719423283</v>
+        <v>32894.99934254225</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>201266.2998112225</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>253934.1970054553</v>
+        <v>234161.2991537647</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.2713273331732</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.5629064580944</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2342,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2351,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>72000.50657914519</v>
+        <v>44969.64456069149</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>268355.0664149633</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>340355.5729941085</v>
+        <v>313324.7109756548</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.6821401479347</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.8000490964371</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2379,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2388,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30041.46596593439</v>
+        <v>18763.11863285529</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>63679.59202887797</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>93721.05799481236</v>
+        <v>82442.71066173326</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3780100118596</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.3482912308602</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2416,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2425,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42335.50907275196</v>
+        <v>26441.6583403459</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>127359.1840577559</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>169694.6931305079</v>
+        <v>153800.8423981018</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7171311348303</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.4397630548207</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2453,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2462,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>59380.89243158562</v>
+        <v>37087.76164525651</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>191038.7760866339</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>250419.6685182195</v>
+        <v>228126.5377318904</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.056252257801</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.5994947955519</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2490,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2499,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>81177.61604243543</v>
+        <v>50701.42854758714</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>254718.3681155119</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>335895.9841579474</v>
+        <v>305419.796663099</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.3953733807718</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.8274864530537</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2527,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2536,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34692.59660138007</v>
+        <v>21668.09390898645</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>58228.92389379566</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>92921.52049517573</v>
+        <v>79897.01780278211</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.2633876563853</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.4151822277548</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2564,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2573,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48890.04883584972</v>
+        <v>30535.45347332071</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>116457.8477875913</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>165347.896623441</v>
+        <v>146993.301260912</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.4878864238817</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.4590467720661</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2601,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2610,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>68574.46135601286</v>
+        <v>42829.82578366996</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>174686.771681387</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>243261.2330373998</v>
+        <v>217516.5974650569</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.7123851913782</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.5819936010983</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2638,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2647,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>93745.8341618695</v>
+        <v>58551.2108400342</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>232915.6955751826</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>326661.5297370522</v>
+        <v>291466.9064152169</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>281.9368839588746</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.7840227148514</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2675,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2684,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39030.54260167725</v>
+        <v>24377.46220408871</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>50736.76219849386</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>89767.30480017111</v>
+        <v>75114.22440258256</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.1058346372275</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.4479762535263</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2712,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2721,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>55003.23760170218</v>
+        <v>34353.59224753351</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>101473.5243969877</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>156476.7619986899</v>
+        <v>135827.1166445212</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.172780385566</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.4125511789077</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2749,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2758,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>77148.97982690805</v>
+        <v>48185.2471027045</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>152210.2865954816</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>229359.2664223896</v>
+        <v>200395.5336981861</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.2397261339046</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.4663843116956</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2786,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2795,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>105467.7692772949</v>
+        <v>65872.42676960171</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>202947.0487939754</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>308414.8180712703</v>
+        <v>268819.4755635771</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.3066718822431</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.6094756518901</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2823,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2832,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>26928.88147927393</v>
+        <v>16819.07928257126</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>75694.85676756798</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>102623.7382468419</v>
+        <v>92513.93605013924</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.523042343792</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.3968611016532</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2860,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2869,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37949.14360962358</v>
+        <v>23702.04850755468</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>151389.713535136</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>189338.8571447596</v>
+        <v>175091.7620426907</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>284.1183069098062</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.6382087399002</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2897,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2906,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>53228.46149508629</v>
+        <v>33245.11323146444</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>227084.5703027039</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>280313.0317977902</v>
+        <v>260329.6835341684</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.7135714758204</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.9405257785236</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2934,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2943,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>72766.83513566203</v>
+        <v>45448.27345430056</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>302779.4270702719</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>375546.2622059339</v>
+        <v>348227.7005245725</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>287.3088360418346</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>291.3038122175234</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2971,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +2980,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30601.5444406331</v>
+        <v>19112.9290873916</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>72332.22079970101</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>102933.7652403341</v>
+        <v>91445.14988709262</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.4521749924683</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.48064517658</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3008,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3017,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>43124.79170542866</v>
+        <v>26934.62375317092</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>144664.441599402</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>187789.2333048307</v>
+        <v>171599.0653525729</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.9765722071589</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.6997174552192</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3045,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3054,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>60487.96089811932</v>
+        <v>37779.2078282031</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>216996.6623991031</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>277484.6232972224</v>
+        <v>254775.8702273061</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.5009694218494</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.9883222553053</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3082,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3091,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>82691.05201870506</v>
+        <v>51646.68131248813</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>289328.883198804</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>372019.9352175091</v>
+        <v>340975.5645112921</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>287.0253666365399</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.3464595768382</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3119,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3128,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>36129.44002353802</v>
+        <v>22565.50895582067</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>66928.0912716146</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>103057.5312951526</v>
+        <v>89493.60022743526</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3382832868168</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.5612701981942</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3156,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3165,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>50914.90001334784</v>
+        <v>31800.12287728242</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>133856.1825432292</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>184771.0825565771</v>
+        <v>165656.3054205116</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7487887958558</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.7389886415483</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3193,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3202,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>71414.57058333697</v>
+        <v>44603.68417070663</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>200784.2738148438</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>272198.8443981808</v>
+        <v>245387.9579855504</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1592943048948</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.9990646753583</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3230,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3239,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>97628.45173350535</v>
+        <v>60976.19283609327</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>267712.3650864584</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>365340.8168199637</v>
+        <v>328688.5579225516</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.5697998139337</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3414982996243</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3267,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3276,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>41995.9315617586</v>
+        <v>26229.56705521877</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>59482.46818330868</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>101478.3997450673</v>
+        <v>85712.03523852745</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.1813672268374</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.6173109926622</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3304,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3313,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>59182.16986040488</v>
+        <v>36963.64469362977</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>118964.9363666174</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>178147.1062270222</v>
+        <v>155928.5810602471</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.434956675897</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.7258901198142</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3341,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3350,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>83010.45952487209</v>
+        <v>51846.17493697477</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>178447.4045499261</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>261457.8640747981</v>
+        <v>230293.5794869008</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.6885461249566</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.9305089461276</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3378,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3387,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>113480.8005551602</v>
+        <v>70877.15778525377</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>237929.8727332347</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>351410.6732883949</v>
+        <v>308807.0305184885</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>285.9421355740162</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.2311674716023</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3415,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3424,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>27203.60281253434</v>
+        <v>16990.6630851988</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>79863.15833571606</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>107066.7611482504</v>
+        <v>96853.82142091486</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.5029242902863</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.4604640356679</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3452,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3461,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>38336.29074518324</v>
+        <v>23943.85054348439</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>159726.3166714321</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>198062.6074166154</v>
+        <v>183670.1672149165</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>288.1891819139058</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.7630913086409</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3489,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3498,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>53771.48419436123</v>
+        <v>33584.27109208226</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>239589.4750071482</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>293360.9592015094</v>
+        <v>273173.7460992304</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.8754395375254</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>290.1273099757026</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3526,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3535,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>73509.18316006829</v>
+        <v>45911.92473099242</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>319452.6333428642</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>392961.8165029325</v>
+        <v>365364.5580738566</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>291.561697161145</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>291.553120036853</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3563,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3572,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>30669.32659694469</v>
+        <v>19155.26406004265</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>76547.06097484498</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>107216.3875717897</v>
+        <v>95702.32503488763</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.432907093722</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.5421712783533</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3600,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3609,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>43220.31274613799</v>
+        <v>26994.28371186918</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>153094.12194969</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>196314.4346958279</v>
+        <v>180088.4056615591</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>288.0491475207774</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.8221943788947</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3637,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3646,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>60621.94120844384</v>
+        <v>37862.88844684988</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>229641.182924535</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>290263.1241329788</v>
+        <v>267504.0713713848</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.6653879478327</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>299.1719040148167</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3674,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3683,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>82874.21198386222</v>
+        <v>51761.07826498473</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>306188.2438993799</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>389062.4558832421</v>
+        <v>357949.3221643646</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>291.281628374888</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.5913001861192</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3711,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3720,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>36316.14528869476</v>
+        <v>22682.1202105273</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>71189.47005375444</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>107505.6153424492</v>
+        <v>93871.59026428175</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.3197851145367</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.6253794008811</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3748,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3757,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>51178.01175549573</v>
+        <v>31964.45563112393</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>142378.9401075089</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>193556.9518630046</v>
+        <v>174343.3957386328</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.8229035624068</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.8656173360959</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3785,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3794,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>71783.6179953126</v>
+        <v>44834.18158983721</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>213568.4101612633</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>285352.0281565759</v>
+        <v>258402.5917511005</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.3260220102768</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.1886384591672</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3822,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3831,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>98132.96400814537</v>
+        <v>61291.29808666714</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>284757.8802150178</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>382890.8442231631</v>
+        <v>346049.1783016849</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.8291404581469</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.5944427700953</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3859,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3868,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>42678.92051110149</v>
+        <v>26656.14419682635</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>63790.38557244441</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>106469.3060835459</v>
+        <v>90446.52976927077</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.1635583527304</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.689476219471</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3896,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3905,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>60144.66233311853</v>
+        <v>37564.79246948182</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>127580.7711448888</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>187725.4334780074</v>
+        <v>165145.5636143707</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.5104500387941</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.8643864392477</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3933,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3942,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>84360.47664383963</v>
+        <v>52689.36053212173</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>191371.1567173332</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>275731.6333611729</v>
+        <v>244060.5172494549</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>288.8573417248579</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>317.1368982726565</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3970,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +3979,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>115326.3634432648</v>
+        <v>72029.84838474609</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>255161.5422897776</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>370487.9057330424</v>
+        <v>327191.3906745237</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.2042334109216</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.5070117196977</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4007,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4016,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>27999.4941457819</v>
+        <v>17487.75612058926</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>79593.67130818515</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>107593.165453967</v>
+        <v>97081.42742877442</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.3889072154344</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.4679996390317</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4044,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4053,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>39457.88929825768</v>
+        <v>24644.37184073526</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>159187.3426163703</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>198645.231914628</v>
+        <v>183831.7144571056</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>292.0722588753133</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.7714317174852</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4081,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4090,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>55344.6676635167</v>
+        <v>34566.84058774146</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>238781.0139245554</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>294125.6815880722</v>
+        <v>273347.8545122969</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.7556105351921</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>290.1382571593142</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4118,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4127,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>75659.82924155898</v>
+        <v>47255.16236160783</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>318374.6852327406</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>394034.5144742996</v>
+        <v>365629.8475943484</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>295.438962195071</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>291.5684759645186</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4155,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4164,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>30875.467461138</v>
+        <v>19284.01428462637</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>76324.11255430995</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>107199.580015448</v>
+        <v>95608.12683893632</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.3197582860667</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.5419298133484</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4192,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4201,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>43510.81383008032</v>
+        <v>27175.72313653521</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>152648.2251086199</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>196159.0389387002</v>
+        <v>179823.9482451551</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.9339610165779</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.8199618927149</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4229,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4238,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>61029.40562766683</v>
+        <v>38117.38012995275</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>228972.3376629298</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>290001.7432905966</v>
+        <v>267089.7177928826</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.548163747089</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>299.16814889866</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4266,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4275,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>83431.24285389751</v>
+        <v>52108.98526487903</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>305296.4502172398</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>388727.6930711373</v>
+        <v>357405.4354821188</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>295.1623664776001</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.5864908311835</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4303,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4312,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>35983.97795450468</v>
+        <v>22474.65712918384</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>71013.0602402153</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>106997.03819472</v>
+        <v>93487.71736939915</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.2074331654674</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.6180493965244</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4340,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4349,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>50709.90965933898</v>
+        <v>31672.09123144927</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>142026.1204804306</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>192736.0301397696</v>
+        <v>173698.2117118799</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.7093107753792</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.8537855818877</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4377,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4386,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>71127.04575069598</v>
+        <v>44424.10363522771</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>213039.1807206459</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>284166.2264713419</v>
+        <v>257463.2843558736</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.2111883852911</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.1715477747789</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4414,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4423,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>97235.38622857574</v>
+        <v>60730.69434051916</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>284052.2409608612</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>381287.6271894369</v>
+        <v>344782.9353013803</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.7130659952028</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.5713359751981</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4451,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4460,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>41911.38553874604</v>
+        <v>26176.76180724853</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>63660.51436590115</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>105571.8999046472</v>
+        <v>89837.27617314969</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.0519318536365</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.6765003156877</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4488,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4497,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>59063.02457873415</v>
+        <v>36889.2296482033</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>127321.0287318023</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>186384.0533105365</v>
+        <v>164210.2583800056</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.3983081517173</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.8449909632644</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4525,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4534,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>82843.34323621563</v>
+        <v>51741.79844772157</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>190981.5430977035</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>273824.8863339191</v>
+        <v>242723.341545425</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>292.7446844497982</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.1093279633066</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4562,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.01667744750660252</v>
+        <v>0.01502078267644337</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4571,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>113252.3415111905</v>
+        <v>70734.46820580336</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>254642.0574636046</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>367894.3989747951</v>
+        <v>325376.525669408</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.0910607478792</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.469511315814</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4771,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.01130153653374901</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.01130153653374901</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.01130153653374901</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.01130153653374901</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.01502078267644337</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.01502078267644337</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.01502078267644337</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.01502078267644337</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>